--- a/Code/Results/Cases/Case_0_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9746435802353663</v>
+        <v>1.03247682266724</v>
       </c>
       <c r="D2">
-        <v>0.9897738176201168</v>
+        <v>1.041880590087326</v>
       </c>
       <c r="E2">
-        <v>0.9841599133727572</v>
+        <v>1.03186514798708</v>
       </c>
       <c r="F2">
-        <v>0.9964288973160784</v>
+        <v>1.049050770049192</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04481343477187</v>
+        <v>1.027160259577969</v>
       </c>
       <c r="J2">
-        <v>0.9976100826939018</v>
+        <v>1.037606830111397</v>
       </c>
       <c r="K2">
-        <v>1.001377482131093</v>
+        <v>1.04465885329997</v>
       </c>
       <c r="L2">
-        <v>0.9958444275683326</v>
+        <v>1.034672032303414</v>
       </c>
       <c r="M2">
-        <v>1.007938208497822</v>
+        <v>1.051808907151408</v>
       </c>
       <c r="N2">
-        <v>0.999026803438803</v>
+        <v>1.039080350825322</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9816653277776691</v>
+        <v>1.033907953514061</v>
       </c>
       <c r="D3">
-        <v>0.9962162804924238</v>
+        <v>1.043245750382815</v>
       </c>
       <c r="E3">
-        <v>0.9899524731502388</v>
+        <v>1.033096635116719</v>
       </c>
       <c r="F3">
-        <v>1.003179951378455</v>
+        <v>1.050463900759419</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045289444376327</v>
+        <v>1.027151154978046</v>
       </c>
       <c r="J3">
-        <v>1.002668607551217</v>
+        <v>1.038677826411654</v>
       </c>
       <c r="K3">
-        <v>1.006897804746688</v>
+        <v>1.04583327782716</v>
       </c>
       <c r="L3">
-        <v>1.000715548994648</v>
+        <v>1.035711040097946</v>
       </c>
       <c r="M3">
-        <v>1.013772305188059</v>
+        <v>1.053032653776008</v>
       </c>
       <c r="N3">
-        <v>1.004092511981636</v>
+        <v>1.04015286806317</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9860812204950031</v>
+        <v>1.034833265293881</v>
       </c>
       <c r="D4">
-        <v>1.000273272960979</v>
+        <v>1.044128490390494</v>
       </c>
       <c r="E4">
-        <v>0.9936023762531707</v>
+        <v>1.03389310669884</v>
       </c>
       <c r="F4">
-        <v>1.007427726823481</v>
+        <v>1.051377070553262</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045570291988362</v>
+        <v>1.027142772198315</v>
       </c>
       <c r="J4">
-        <v>1.005847798191078</v>
+        <v>1.039369718705235</v>
       </c>
       <c r="K4">
-        <v>1.010368400937468</v>
+        <v>1.046592071287426</v>
       </c>
       <c r="L4">
-        <v>1.003778633199803</v>
+        <v>1.03638241121655</v>
       </c>
       <c r="M4">
-        <v>1.017437324770266</v>
+        <v>1.053822760243242</v>
       </c>
       <c r="N4">
-        <v>1.007276217436865</v>
+        <v>1.040845742923169</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9879087641944222</v>
+        <v>1.035222098228875</v>
       </c>
       <c r="D5">
-        <v>1.001953486476201</v>
+        <v>1.044499452715199</v>
       </c>
       <c r="E5">
-        <v>0.9951144978948412</v>
+        <v>1.034227855523841</v>
       </c>
       <c r="F5">
-        <v>1.009186072307281</v>
+        <v>1.051760679387014</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045681962930932</v>
+        <v>1.027138650937356</v>
       </c>
       <c r="J5">
-        <v>1.007162960296466</v>
+        <v>1.039660327327636</v>
       </c>
       <c r="K5">
-        <v>1.011804381781899</v>
+        <v>1.046910799642383</v>
       </c>
       <c r="L5">
-        <v>1.005046155938539</v>
+        <v>1.036664434974856</v>
       </c>
       <c r="M5">
-        <v>1.018953027806797</v>
+        <v>1.054154508375991</v>
       </c>
       <c r="N5">
-        <v>1.008593247223293</v>
+        <v>1.041136764243147</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9882139681090463</v>
+        <v>1.035287375291288</v>
       </c>
       <c r="D6">
-        <v>1.002234154035378</v>
+        <v>1.044561730748932</v>
       </c>
       <c r="E6">
-        <v>0.9953671161866188</v>
+        <v>1.034284056285683</v>
       </c>
       <c r="F6">
-        <v>1.009479738557279</v>
+        <v>1.051825072251442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045700340718016</v>
+        <v>1.027137923923094</v>
       </c>
       <c r="J6">
-        <v>1.007382560091947</v>
+        <v>1.039709106487042</v>
       </c>
       <c r="K6">
-        <v>1.012044170944641</v>
+        <v>1.046964299910309</v>
       </c>
       <c r="L6">
-        <v>1.00525782386673</v>
+        <v>1.036711775167052</v>
       </c>
       <c r="M6">
-        <v>1.019206085929511</v>
+        <v>1.054210186260434</v>
       </c>
       <c r="N6">
-        <v>1.008813158875672</v>
+        <v>1.041185612674555</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9861057516721642</v>
+        <v>1.034838461552381</v>
       </c>
       <c r="D7">
-        <v>1.000295821880946</v>
+        <v>1.044133447758046</v>
       </c>
       <c r="E7">
-        <v>0.9936226673564945</v>
+        <v>1.033897579969389</v>
       </c>
       <c r="F7">
-        <v>1.007451327821108</v>
+        <v>1.051382197478574</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045571809144971</v>
+        <v>1.027142719477056</v>
       </c>
       <c r="J7">
-        <v>1.005865453981246</v>
+        <v>1.039373602860239</v>
       </c>
       <c r="K7">
-        <v>1.010387677638598</v>
+        <v>1.04659633120114</v>
       </c>
       <c r="L7">
-        <v>1.003795647904972</v>
+        <v>1.036386180494534</v>
       </c>
       <c r="M7">
-        <v>1.017457674573839</v>
+        <v>1.053827194694758</v>
       </c>
       <c r="N7">
-        <v>1.00729389830028</v>
+        <v>1.040849632594119</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9770440865754776</v>
+        <v>1.032960633630022</v>
       </c>
       <c r="D8">
-        <v>0.9919750860653116</v>
+        <v>1.042342081393377</v>
       </c>
       <c r="E8">
-        <v>0.9861386543470431</v>
+        <v>1.032281416440214</v>
       </c>
       <c r="F8">
-        <v>0.9987363331032674</v>
+        <v>1.049528599502753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04497999505621</v>
+        <v>1.027157698117068</v>
       </c>
       <c r="J8">
-        <v>0.9993398147788133</v>
+        <v>1.037969011252064</v>
       </c>
       <c r="K8">
-        <v>1.003264868485573</v>
+        <v>1.045055993535343</v>
       </c>
       <c r="L8">
-        <v>0.9975097187423141</v>
+        <v>1.035023365862268</v>
       </c>
       <c r="M8">
-        <v>1.009933448811809</v>
+        <v>1.052222840506162</v>
       </c>
       <c r="N8">
-        <v>1.000758991941678</v>
+        <v>1.039443046304752</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9600162442363888</v>
+        <v>1.029645853915091</v>
       </c>
       <c r="D9">
-        <v>0.9763881382638715</v>
+        <v>1.039180592639943</v>
       </c>
       <c r="E9">
-        <v>0.9721374936022409</v>
+        <v>1.029430423845227</v>
       </c>
       <c r="F9">
-        <v>0.9823837205271839</v>
+        <v>1.046252779519013</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043723840220682</v>
+        <v>1.027165039368521</v>
       </c>
       <c r="J9">
-        <v>0.9870644766710645</v>
+        <v>1.035485240010899</v>
       </c>
       <c r="K9">
-        <v>0.9898762817393196</v>
+        <v>1.042332829705012</v>
       </c>
       <c r="L9">
-        <v>0.9856993971253865</v>
+        <v>1.032614582419648</v>
       </c>
       <c r="M9">
-        <v>0.9957692255360197</v>
+        <v>1.049382270193302</v>
       </c>
       <c r="N9">
-        <v>0.9884662214458153</v>
+        <v>1.036955747823532</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9478224402279192</v>
+        <v>1.027431745170299</v>
       </c>
       <c r="D10">
-        <v>0.9652669482622612</v>
+        <v>1.037069374622477</v>
       </c>
       <c r="E10">
-        <v>0.9621616432483875</v>
+        <v>1.027527429492147</v>
       </c>
       <c r="F10">
-        <v>0.9707000392195047</v>
+        <v>1.044062203185137</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042734676875327</v>
+        <v>1.027157160870885</v>
       </c>
       <c r="J10">
-        <v>0.9782708976788521</v>
+        <v>1.033823302360875</v>
       </c>
       <c r="K10">
-        <v>0.980292973855502</v>
+        <v>1.040511156793348</v>
       </c>
       <c r="L10">
-        <v>0.9772494248569735</v>
+        <v>1.031003575219406</v>
       </c>
       <c r="M10">
-        <v>0.9856192620717759</v>
+        <v>1.047479241620004</v>
       </c>
       <c r="N10">
-        <v>0.9796601545627963</v>
+        <v>1.035291450031417</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9423089936022004</v>
+        <v>1.02647192355107</v>
       </c>
       <c r="D11">
-        <v>0.9602501298209853</v>
+        <v>1.036154286070151</v>
       </c>
       <c r="E11">
-        <v>0.9576651542927196</v>
+        <v>1.026702803597876</v>
       </c>
       <c r="F11">
-        <v>0.965426185421411</v>
+        <v>1.043112007877939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042268195479638</v>
+        <v>1.027150727360527</v>
       </c>
       <c r="J11">
-        <v>0.9742955983126169</v>
+        <v>1.033102166486809</v>
       </c>
       <c r="K11">
-        <v>0.9759627292815888</v>
+        <v>1.039720817755571</v>
       </c>
       <c r="L11">
-        <v>0.9734321822453325</v>
+        <v>1.030304719098081</v>
       </c>
       <c r="M11">
-        <v>0.9810309561140969</v>
+        <v>1.046652944738684</v>
       </c>
       <c r="N11">
-        <v>0.9756792098154877</v>
+        <v>1.034569290061695</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9402226683489053</v>
+        <v>1.026115231257817</v>
       </c>
       <c r="D12">
-        <v>0.9583536690835719</v>
+        <v>1.035814238051431</v>
       </c>
       <c r="E12">
-        <v>0.955965974413799</v>
+        <v>1.026396403333128</v>
       </c>
       <c r="F12">
-        <v>0.9634321166662484</v>
+        <v>1.042758807865801</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042088975587431</v>
+        <v>1.027147884175114</v>
       </c>
       <c r="J12">
-        <v>0.9727915684192204</v>
+        <v>1.032834073530135</v>
       </c>
       <c r="K12">
-        <v>0.9743247395168436</v>
+        <v>1.039427013892046</v>
       </c>
       <c r="L12">
-        <v>0.9719883839066097</v>
+        <v>1.030044936188399</v>
       </c>
       <c r="M12">
-        <v>0.9792951127144157</v>
+        <v>1.046345674924673</v>
       </c>
       <c r="N12">
-        <v>0.974173044027128</v>
+        <v>1.034300816382272</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9406719870988022</v>
+        <v>1.02619175085076</v>
       </c>
       <c r="D13">
-        <v>0.9587620072552174</v>
+        <v>1.035887186084366</v>
       </c>
       <c r="E13">
-        <v>0.9563318078284513</v>
+        <v>1.026462131719553</v>
       </c>
       <c r="F13">
-        <v>0.963861490540621</v>
+        <v>1.042834582104234</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042127691743086</v>
+        <v>1.027148514561073</v>
       </c>
       <c r="J13">
-        <v>0.9731154681785412</v>
+        <v>1.032891590908382</v>
       </c>
       <c r="K13">
-        <v>0.9746774728333714</v>
+        <v>1.039490046612278</v>
       </c>
       <c r="L13">
-        <v>0.9722992926433596</v>
+        <v>1.030100669473556</v>
       </c>
       <c r="M13">
-        <v>0.9796689279582126</v>
+        <v>1.046411601095131</v>
       </c>
       <c r="N13">
-        <v>0.9744974037612589</v>
+        <v>1.034358415441794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9421373410382164</v>
+        <v>1.026442442799488</v>
       </c>
       <c r="D14">
-        <v>0.9600940579415121</v>
+        <v>1.036126180552325</v>
       </c>
       <c r="E14">
-        <v>0.9575253058177216</v>
+        <v>1.026677478473243</v>
       </c>
       <c r="F14">
-        <v>0.9652620894375081</v>
+        <v>1.043082817492516</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042253503774191</v>
+        <v>1.027150501589999</v>
       </c>
       <c r="J14">
-        <v>0.9741718482100573</v>
+        <v>1.033080010578928</v>
       </c>
       <c r="K14">
-        <v>0.9758279502427091</v>
+        <v>1.039696536695289</v>
       </c>
       <c r="L14">
-        <v>0.9733133790396087</v>
+        <v>1.030283249398585</v>
       </c>
       <c r="M14">
-        <v>0.9808881297861799</v>
+        <v>1.046627552814032</v>
       </c>
       <c r="N14">
-        <v>0.9755552839735886</v>
+        <v>1.034547102689883</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9430350011656834</v>
+        <v>1.026596879410901</v>
       </c>
       <c r="D15">
-        <v>0.9609103185011723</v>
+        <v>1.03627341376406</v>
       </c>
       <c r="E15">
-        <v>0.9582567415239115</v>
+        <v>1.02681014765203</v>
       </c>
       <c r="F15">
-        <v>0.966120298589755</v>
+        <v>1.043235729528268</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042330225715377</v>
+        <v>1.027151665787691</v>
       </c>
       <c r="J15">
-        <v>0.9748190126037101</v>
+        <v>1.033196071406546</v>
       </c>
       <c r="K15">
-        <v>0.9765328052406671</v>
+        <v>1.039823730528215</v>
       </c>
       <c r="L15">
-        <v>0.9739346907991563</v>
+        <v>1.030395716728239</v>
       </c>
       <c r="M15">
-        <v>0.9816350605039266</v>
+        <v>1.04676056175251</v>
       </c>
       <c r="N15">
-        <v>0.976203367414911</v>
+        <v>1.03466332833719</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9481831577413786</v>
+        <v>1.027495421653768</v>
       </c>
       <c r="D16">
-        <v>0.9655954302092162</v>
+        <v>1.03713008623543</v>
       </c>
       <c r="E16">
-        <v>0.962456134782271</v>
+        <v>1.027582143790824</v>
       </c>
       <c r="F16">
-        <v>0.9710452868399673</v>
+        <v>1.044125229041678</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042764813918874</v>
+        <v>1.027157524216574</v>
       </c>
       <c r="J16">
-        <v>0.9785310084035589</v>
+        <v>1.033871129642387</v>
       </c>
       <c r="K16">
-        <v>0.9805763537617225</v>
+        <v>1.040563576065506</v>
       </c>
       <c r="L16">
-        <v>0.9774992518735698</v>
+        <v>1.031049928667221</v>
       </c>
       <c r="M16">
-        <v>0.9859194936598984</v>
+        <v>1.047534031918939</v>
       </c>
       <c r="N16">
-        <v>0.9799206346745675</v>
+        <v>1.035339345233155</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9513477492696233</v>
+        <v>1.028058754690353</v>
       </c>
       <c r="D17">
-        <v>0.9684785525585305</v>
+        <v>1.037667204747761</v>
       </c>
       <c r="E17">
-        <v>0.965041337189888</v>
+        <v>1.028066228045587</v>
       </c>
       <c r="F17">
-        <v>0.9740751969384671</v>
+        <v>1.044682739886002</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043027058333246</v>
+        <v>1.027160390345438</v>
       </c>
       <c r="J17">
-        <v>0.980813069676705</v>
+        <v>1.034294169329722</v>
       </c>
       <c r="K17">
-        <v>0.9830628010180987</v>
+        <v>1.041027245102741</v>
       </c>
       <c r="L17">
-        <v>0.9796913997014771</v>
+        <v>1.031459952898278</v>
       </c>
       <c r="M17">
-        <v>0.9885535815129536</v>
+        <v>1.048018597355958</v>
       </c>
       <c r="N17">
-        <v>0.9822059367364774</v>
+        <v>1.03576298568537</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9531713223178641</v>
+        <v>1.028387231852338</v>
       </c>
       <c r="D18">
-        <v>0.9701410124570397</v>
+        <v>1.037980408770541</v>
       </c>
       <c r="E18">
-        <v>0.9665323532954918</v>
+        <v>1.028348527019498</v>
       </c>
       <c r="F18">
-        <v>0.9758219837475718</v>
+        <v>1.045007766617997</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043176354256738</v>
+        <v>1.02716177048917</v>
       </c>
       <c r="J18">
-        <v>0.98212814986345</v>
+        <v>1.03454077624674</v>
       </c>
       <c r="K18">
-        <v>0.984495855232675</v>
+        <v>1.041297546904369</v>
       </c>
       <c r="L18">
-        <v>0.9809549200017302</v>
+        <v>1.031698989955104</v>
       </c>
       <c r="M18">
-        <v>0.990071533675928</v>
+        <v>1.048301017202988</v>
       </c>
       <c r="N18">
-        <v>0.9835228844879293</v>
+        <v>1.036009942812496</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9537894284687882</v>
+        <v>1.028499216393339</v>
       </c>
       <c r="D19">
-        <v>0.9707046869849399</v>
+        <v>1.03808718846997</v>
       </c>
       <c r="E19">
-        <v>0.9670379550620738</v>
+        <v>1.028444773781221</v>
       </c>
       <c r="F19">
-        <v>0.9764141955645999</v>
+        <v>1.045118565377996</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043226644424428</v>
+        <v>1.027162191601837</v>
       </c>
       <c r="J19">
-        <v>0.9825739067368155</v>
+        <v>1.034624838384764</v>
       </c>
       <c r="K19">
-        <v>0.9849816324554994</v>
+        <v>1.041389687794825</v>
       </c>
       <c r="L19">
-        <v>0.9813832427700332</v>
+        <v>1.03178047466039</v>
       </c>
       <c r="M19">
-        <v>0.9905860548508065</v>
+        <v>1.048397278077052</v>
       </c>
       <c r="N19">
-        <v>0.9839692743871843</v>
+        <v>1.036094124328398</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9510105456402382</v>
+        <v>1.027998325345644</v>
       </c>
       <c r="D20">
-        <v>0.9681712272847657</v>
+        <v>1.037609586169688</v>
       </c>
       <c r="E20">
-        <v>0.9647657327866491</v>
+        <v>1.028014296542926</v>
       </c>
       <c r="F20">
-        <v>0.9737522571064842</v>
+        <v>1.044622940829542</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042999302726114</v>
+        <v>1.027160112996758</v>
       </c>
       <c r="J20">
-        <v>0.9805698971614022</v>
+        <v>1.034248796204799</v>
       </c>
       <c r="K20">
-        <v>0.9827978293061376</v>
+        <v>1.04097751319981</v>
       </c>
       <c r="L20">
-        <v>0.9794577816191591</v>
+        <v>1.031415973947788</v>
       </c>
       <c r="M20">
-        <v>0.9882728960017677</v>
+        <v>1.047966630755436</v>
       </c>
       <c r="N20">
-        <v>0.9819624188883105</v>
+        <v>1.035717548125405</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9417069192052493</v>
+        <v>1.026368625066941</v>
       </c>
       <c r="D21">
-        <v>0.9597027367725501</v>
+        <v>1.036055806641493</v>
       </c>
       <c r="E21">
-        <v>0.9571746713611793</v>
+        <v>1.026614066951824</v>
       </c>
       <c r="F21">
-        <v>0.9648506423722291</v>
+        <v>1.043009725446648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042216621309138</v>
+        <v>1.02714992897389</v>
       </c>
       <c r="J21">
-        <v>0.9738615471700912</v>
+        <v>1.033024532096718</v>
       </c>
       <c r="K21">
-        <v>0.9754899997586486</v>
+        <v>1.039635737088326</v>
       </c>
       <c r="L21">
-        <v>0.9730154892749908</v>
+        <v>1.03022948962493</v>
       </c>
       <c r="M21">
-        <v>0.980529997612884</v>
+        <v>1.046563970015906</v>
       </c>
       <c r="N21">
-        <v>0.9752445422705536</v>
+        <v>1.034491545421865</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9356333045133075</v>
+        <v>1.025342970364464</v>
       </c>
       <c r="D22">
-        <v>0.9541857564585901</v>
+        <v>1.035078051400211</v>
       </c>
       <c r="E22">
-        <v>0.9522327552313725</v>
+        <v>1.02573312056361</v>
       </c>
       <c r="F22">
-        <v>0.9590489309973216</v>
+        <v>1.041993953791423</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041689979374374</v>
+        <v>1.027140902358004</v>
       </c>
       <c r="J22">
-        <v>0.9694837309486724</v>
+        <v>1.032253449884341</v>
       </c>
       <c r="K22">
-        <v>0.9707229183014182</v>
+        <v>1.038790736902033</v>
       </c>
       <c r="L22">
-        <v>0.9688138386586828</v>
+        <v>1.029482359989818</v>
       </c>
       <c r="M22">
-        <v>0.9754777576704475</v>
+        <v>1.045680055151551</v>
       </c>
       <c r="N22">
-        <v>0.9708605090479578</v>
+        <v>1.033719368184302</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9388755025016398</v>
+        <v>1.025886786175173</v>
       </c>
       <c r="D23">
-        <v>0.95712967241939</v>
+        <v>1.035596458727541</v>
       </c>
       <c r="E23">
-        <v>0.954869474884306</v>
+        <v>1.026200182226417</v>
       </c>
       <c r="F23">
-        <v>0.9621450045371014</v>
+        <v>1.042532575640399</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041972514711738</v>
+        <v>1.027145936040995</v>
       </c>
       <c r="J23">
-        <v>0.9718204872441513</v>
+        <v>1.032662343645356</v>
       </c>
       <c r="K23">
-        <v>0.9732672630057625</v>
+        <v>1.039238819240733</v>
       </c>
       <c r="L23">
-        <v>0.9710563161981953</v>
+        <v>1.029878537072805</v>
       </c>
       <c r="M23">
-        <v>0.9781744041865009</v>
+        <v>1.046148826965547</v>
       </c>
       <c r="N23">
-        <v>0.9732005838054062</v>
+        <v>1.034128842621358</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9511629820510074</v>
+        <v>1.028025631091584</v>
       </c>
       <c r="D24">
-        <v>0.9683101535286418</v>
+        <v>1.037635621797619</v>
       </c>
       <c r="E24">
-        <v>0.9648903185661613</v>
+        <v>1.028037762336836</v>
       </c>
       <c r="F24">
-        <v>0.9738982428813745</v>
+        <v>1.04464996194369</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04301185560596</v>
+        <v>1.027160239219924</v>
       </c>
       <c r="J24">
-        <v>0.9806798256558199</v>
+        <v>1.034269298815154</v>
       </c>
       <c r="K24">
-        <v>0.9829176117415459</v>
+        <v>1.040999985365267</v>
       </c>
       <c r="L24">
-        <v>0.9795633901509312</v>
+        <v>1.031435846523257</v>
       </c>
       <c r="M24">
-        <v>0.9883997825849337</v>
+        <v>1.047990112902358</v>
       </c>
       <c r="N24">
-        <v>0.9820725034937997</v>
+        <v>1.035738079851818</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9645563987322462</v>
+        <v>1.030503528130116</v>
       </c>
       <c r="D25">
-        <v>0.9805377454258938</v>
+        <v>1.039998519673605</v>
       </c>
       <c r="E25">
-        <v>0.9758626645454115</v>
+        <v>1.030167866896008</v>
       </c>
       <c r="F25">
-        <v>0.986740096921414</v>
+        <v>1.047100817133351</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044074662321931</v>
+        <v>1.02716539543726</v>
       </c>
       <c r="J25">
-        <v>0.9903384279320446</v>
+        <v>1.03612841016152</v>
       </c>
       <c r="K25">
-        <v>0.9934458931800331</v>
+        <v>1.043037912400111</v>
       </c>
       <c r="L25">
-        <v>0.9888476066775201</v>
+        <v>1.033238202211382</v>
       </c>
       <c r="M25">
-        <v>0.9995478036021809</v>
+        <v>1.05011824960771</v>
       </c>
       <c r="N25">
-        <v>0.9917448220931134</v>
+        <v>1.037599831349539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03247682266724</v>
+        <v>0.9746435802353652</v>
       </c>
       <c r="D2">
-        <v>1.041880590087326</v>
+        <v>0.9897738176201157</v>
       </c>
       <c r="E2">
-        <v>1.03186514798708</v>
+        <v>0.9841599133727561</v>
       </c>
       <c r="F2">
-        <v>1.049050770049192</v>
+        <v>0.9964288973160773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027160259577969</v>
+        <v>1.04481343477187</v>
       </c>
       <c r="J2">
-        <v>1.037606830111397</v>
+        <v>0.9976100826939005</v>
       </c>
       <c r="K2">
-        <v>1.04465885329997</v>
+        <v>1.001377482131092</v>
       </c>
       <c r="L2">
-        <v>1.034672032303414</v>
+        <v>0.9958444275683315</v>
       </c>
       <c r="M2">
-        <v>1.051808907151408</v>
+        <v>1.007938208497821</v>
       </c>
       <c r="N2">
-        <v>1.039080350825322</v>
+        <v>0.9990268034388016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033907953514061</v>
+        <v>0.9816653277776687</v>
       </c>
       <c r="D3">
-        <v>1.043245750382815</v>
+        <v>0.9962162804924234</v>
       </c>
       <c r="E3">
-        <v>1.033096635116719</v>
+        <v>0.9899524731502383</v>
       </c>
       <c r="F3">
-        <v>1.050463900759419</v>
+        <v>1.003179951378455</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027151154978046</v>
+        <v>1.045289444376327</v>
       </c>
       <c r="J3">
-        <v>1.038677826411654</v>
+        <v>1.002668607551217</v>
       </c>
       <c r="K3">
-        <v>1.04583327782716</v>
+        <v>1.006897804746687</v>
       </c>
       <c r="L3">
-        <v>1.035711040097946</v>
+        <v>1.000715548994648</v>
       </c>
       <c r="M3">
-        <v>1.053032653776008</v>
+        <v>1.013772305188059</v>
       </c>
       <c r="N3">
-        <v>1.04015286806317</v>
+        <v>1.004092511981636</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034833265293881</v>
+        <v>0.9860812204950018</v>
       </c>
       <c r="D4">
-        <v>1.044128490390494</v>
+        <v>1.000273272960977</v>
       </c>
       <c r="E4">
-        <v>1.03389310669884</v>
+        <v>0.9936023762531694</v>
       </c>
       <c r="F4">
-        <v>1.051377070553262</v>
+        <v>1.00742772682348</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027142772198315</v>
+        <v>1.045570291988362</v>
       </c>
       <c r="J4">
-        <v>1.039369718705235</v>
+        <v>1.005847798191077</v>
       </c>
       <c r="K4">
-        <v>1.046592071287426</v>
+        <v>1.010368400937467</v>
       </c>
       <c r="L4">
-        <v>1.03638241121655</v>
+        <v>1.003778633199802</v>
       </c>
       <c r="M4">
-        <v>1.053822760243242</v>
+        <v>1.017437324770265</v>
       </c>
       <c r="N4">
-        <v>1.040845742923169</v>
+        <v>1.007276217436863</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035222098228875</v>
+        <v>0.9879087641944222</v>
       </c>
       <c r="D5">
-        <v>1.044499452715199</v>
+        <v>1.001953486476201</v>
       </c>
       <c r="E5">
-        <v>1.034227855523841</v>
+        <v>0.9951144978948412</v>
       </c>
       <c r="F5">
-        <v>1.051760679387014</v>
+        <v>1.009186072307281</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027138650937356</v>
+        <v>1.045681962930932</v>
       </c>
       <c r="J5">
-        <v>1.039660327327636</v>
+        <v>1.007162960296466</v>
       </c>
       <c r="K5">
-        <v>1.046910799642383</v>
+        <v>1.011804381781899</v>
       </c>
       <c r="L5">
-        <v>1.036664434974856</v>
+        <v>1.005046155938539</v>
       </c>
       <c r="M5">
-        <v>1.054154508375991</v>
+        <v>1.018953027806797</v>
       </c>
       <c r="N5">
-        <v>1.041136764243147</v>
+        <v>1.008593247223293</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035287375291288</v>
+        <v>0.9882139681090453</v>
       </c>
       <c r="D6">
-        <v>1.044561730748932</v>
+        <v>1.002234154035377</v>
       </c>
       <c r="E6">
-        <v>1.034284056285683</v>
+        <v>0.9953671161866176</v>
       </c>
       <c r="F6">
-        <v>1.051825072251442</v>
+        <v>1.009479738557278</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027137923923094</v>
+        <v>1.045700340718016</v>
       </c>
       <c r="J6">
-        <v>1.039709106487042</v>
+        <v>1.007382560091946</v>
       </c>
       <c r="K6">
-        <v>1.046964299910309</v>
+        <v>1.012044170944639</v>
       </c>
       <c r="L6">
-        <v>1.036711775167052</v>
+        <v>1.005257823866729</v>
       </c>
       <c r="M6">
-        <v>1.054210186260434</v>
+        <v>1.01920608592951</v>
       </c>
       <c r="N6">
-        <v>1.041185612674555</v>
+        <v>1.008813158875671</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034838461552381</v>
+        <v>0.9861057516721637</v>
       </c>
       <c r="D7">
-        <v>1.044133447758046</v>
+        <v>1.000295821880946</v>
       </c>
       <c r="E7">
-        <v>1.033897579969389</v>
+        <v>0.9936226673564943</v>
       </c>
       <c r="F7">
-        <v>1.051382197478574</v>
+        <v>1.007451327821108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027142719477056</v>
+        <v>1.045571809144971</v>
       </c>
       <c r="J7">
-        <v>1.039373602860239</v>
+        <v>1.005865453981246</v>
       </c>
       <c r="K7">
-        <v>1.04659633120114</v>
+        <v>1.010387677638598</v>
       </c>
       <c r="L7">
-        <v>1.036386180494534</v>
+        <v>1.003795647904972</v>
       </c>
       <c r="M7">
-        <v>1.053827194694758</v>
+        <v>1.017457674573838</v>
       </c>
       <c r="N7">
-        <v>1.040849632594119</v>
+        <v>1.007293898300279</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032960633630022</v>
+        <v>0.977044086575478</v>
       </c>
       <c r="D8">
-        <v>1.042342081393377</v>
+        <v>0.9919750860653123</v>
       </c>
       <c r="E8">
-        <v>1.032281416440214</v>
+        <v>0.9861386543470435</v>
       </c>
       <c r="F8">
-        <v>1.049528599502753</v>
+        <v>0.9987363331032679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027157698117068</v>
+        <v>1.04497999505621</v>
       </c>
       <c r="J8">
-        <v>1.037969011252064</v>
+        <v>0.9993398147788138</v>
       </c>
       <c r="K8">
-        <v>1.045055993535343</v>
+        <v>1.003264868485574</v>
       </c>
       <c r="L8">
-        <v>1.035023365862268</v>
+        <v>0.9975097187423146</v>
       </c>
       <c r="M8">
-        <v>1.052222840506162</v>
+        <v>1.00993344881181</v>
       </c>
       <c r="N8">
-        <v>1.039443046304752</v>
+        <v>1.000758991941679</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029645853915091</v>
+        <v>0.9600162442363895</v>
       </c>
       <c r="D9">
-        <v>1.039180592639943</v>
+        <v>0.9763881382638726</v>
       </c>
       <c r="E9">
-        <v>1.029430423845227</v>
+        <v>0.9721374936022416</v>
       </c>
       <c r="F9">
-        <v>1.046252779519013</v>
+        <v>0.982383720527185</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027165039368521</v>
+        <v>1.043723840220682</v>
       </c>
       <c r="J9">
-        <v>1.035485240010899</v>
+        <v>0.9870644766710654</v>
       </c>
       <c r="K9">
-        <v>1.042332829705012</v>
+        <v>0.9898762817393205</v>
       </c>
       <c r="L9">
-        <v>1.032614582419648</v>
+        <v>0.9856993971253871</v>
       </c>
       <c r="M9">
-        <v>1.049382270193302</v>
+        <v>0.9957692255360208</v>
       </c>
       <c r="N9">
-        <v>1.036955747823532</v>
+        <v>0.9884662214458163</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027431745170299</v>
+        <v>0.9478224402279184</v>
       </c>
       <c r="D10">
-        <v>1.037069374622477</v>
+        <v>0.9652669482622601</v>
       </c>
       <c r="E10">
-        <v>1.027527429492147</v>
+        <v>0.9621616432483865</v>
       </c>
       <c r="F10">
-        <v>1.044062203185137</v>
+        <v>0.9707000392195037</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027157160870885</v>
+        <v>1.042734676875327</v>
       </c>
       <c r="J10">
-        <v>1.033823302360875</v>
+        <v>0.9782708976788511</v>
       </c>
       <c r="K10">
-        <v>1.040511156793348</v>
+        <v>0.9802929738555011</v>
       </c>
       <c r="L10">
-        <v>1.031003575219406</v>
+        <v>0.9772494248569726</v>
       </c>
       <c r="M10">
-        <v>1.047479241620004</v>
+        <v>0.9856192620717749</v>
       </c>
       <c r="N10">
-        <v>1.035291450031417</v>
+        <v>0.9796601545627953</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02647192355107</v>
+        <v>0.9423089936021996</v>
       </c>
       <c r="D11">
-        <v>1.036154286070151</v>
+        <v>0.9602501298209843</v>
       </c>
       <c r="E11">
-        <v>1.026702803597876</v>
+        <v>0.9576651542927185</v>
       </c>
       <c r="F11">
-        <v>1.043112007877939</v>
+        <v>0.9654261854214101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027150727360527</v>
+        <v>1.042268195479637</v>
       </c>
       <c r="J11">
-        <v>1.033102166486809</v>
+        <v>0.974295598312616</v>
       </c>
       <c r="K11">
-        <v>1.039720817755571</v>
+        <v>0.975962729281588</v>
       </c>
       <c r="L11">
-        <v>1.030304719098081</v>
+        <v>0.9734321822453313</v>
       </c>
       <c r="M11">
-        <v>1.046652944738684</v>
+        <v>0.9810309561140957</v>
       </c>
       <c r="N11">
-        <v>1.034569290061695</v>
+        <v>0.9756792098154868</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026115231257817</v>
+        <v>0.9402226683489041</v>
       </c>
       <c r="D12">
-        <v>1.035814238051431</v>
+        <v>0.9583536690835708</v>
       </c>
       <c r="E12">
-        <v>1.026396403333128</v>
+        <v>0.9559659744137983</v>
       </c>
       <c r="F12">
-        <v>1.042758807865801</v>
+        <v>0.9634321166662476</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027147884175114</v>
+        <v>1.042088975587431</v>
       </c>
       <c r="J12">
-        <v>1.032834073530135</v>
+        <v>0.9727915684192193</v>
       </c>
       <c r="K12">
-        <v>1.039427013892046</v>
+        <v>0.9743247395168424</v>
       </c>
       <c r="L12">
-        <v>1.030044936188399</v>
+        <v>0.9719883839066089</v>
       </c>
       <c r="M12">
-        <v>1.046345674924673</v>
+        <v>0.9792951127144148</v>
       </c>
       <c r="N12">
-        <v>1.034300816382272</v>
+        <v>0.9741730440271272</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02619175085076</v>
+        <v>0.9406719870988024</v>
       </c>
       <c r="D13">
-        <v>1.035887186084366</v>
+        <v>0.9587620072552177</v>
       </c>
       <c r="E13">
-        <v>1.026462131719553</v>
+        <v>0.9563318078284516</v>
       </c>
       <c r="F13">
-        <v>1.042834582104234</v>
+        <v>0.9638614905406213</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027148514561073</v>
+        <v>1.042127691743086</v>
       </c>
       <c r="J13">
-        <v>1.032891590908382</v>
+        <v>0.9731154681785416</v>
       </c>
       <c r="K13">
-        <v>1.039490046612278</v>
+        <v>0.9746774728333716</v>
       </c>
       <c r="L13">
-        <v>1.030100669473556</v>
+        <v>0.97229929264336</v>
       </c>
       <c r="M13">
-        <v>1.046411601095131</v>
+        <v>0.9796689279582127</v>
       </c>
       <c r="N13">
-        <v>1.034358415441794</v>
+        <v>0.9744974037612593</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026442442799488</v>
+        <v>0.9421373410382158</v>
       </c>
       <c r="D14">
-        <v>1.036126180552325</v>
+        <v>0.9600940579415116</v>
       </c>
       <c r="E14">
-        <v>1.026677478473243</v>
+        <v>0.9575253058177211</v>
       </c>
       <c r="F14">
-        <v>1.043082817492516</v>
+        <v>0.9652620894375077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027150501589999</v>
+        <v>1.042253503774191</v>
       </c>
       <c r="J14">
-        <v>1.033080010578928</v>
+        <v>0.9741718482100568</v>
       </c>
       <c r="K14">
-        <v>1.039696536695289</v>
+        <v>0.9758279502427087</v>
       </c>
       <c r="L14">
-        <v>1.030283249398585</v>
+        <v>0.9733133790396082</v>
       </c>
       <c r="M14">
-        <v>1.046627552814032</v>
+        <v>0.9808881297861793</v>
       </c>
       <c r="N14">
-        <v>1.034547102689883</v>
+        <v>0.9755552839735878</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026596879410901</v>
+        <v>0.9430350011656834</v>
       </c>
       <c r="D15">
-        <v>1.03627341376406</v>
+        <v>0.9609103185011723</v>
       </c>
       <c r="E15">
-        <v>1.02681014765203</v>
+        <v>0.9582567415239117</v>
       </c>
       <c r="F15">
-        <v>1.043235729528268</v>
+        <v>0.9661202985897549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027151665787691</v>
+        <v>1.042330225715377</v>
       </c>
       <c r="J15">
-        <v>1.033196071406546</v>
+        <v>0.9748190126037101</v>
       </c>
       <c r="K15">
-        <v>1.039823730528215</v>
+        <v>0.976532805240667</v>
       </c>
       <c r="L15">
-        <v>1.030395716728239</v>
+        <v>0.9739346907991562</v>
       </c>
       <c r="M15">
-        <v>1.04676056175251</v>
+        <v>0.9816350605039265</v>
       </c>
       <c r="N15">
-        <v>1.03466332833719</v>
+        <v>0.9762033674149111</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027495421653768</v>
+        <v>0.9481831577413791</v>
       </c>
       <c r="D16">
-        <v>1.03713008623543</v>
+        <v>0.9655954302092162</v>
       </c>
       <c r="E16">
-        <v>1.027582143790824</v>
+        <v>0.9624561347822707</v>
       </c>
       <c r="F16">
-        <v>1.044125229041678</v>
+        <v>0.9710452868399675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027157524216574</v>
+        <v>1.042764813918875</v>
       </c>
       <c r="J16">
-        <v>1.033871129642387</v>
+        <v>0.978531008403559</v>
       </c>
       <c r="K16">
-        <v>1.040563576065506</v>
+        <v>0.9805763537617226</v>
       </c>
       <c r="L16">
-        <v>1.031049928667221</v>
+        <v>0.9774992518735696</v>
       </c>
       <c r="M16">
-        <v>1.047534031918939</v>
+        <v>0.9859194936598987</v>
       </c>
       <c r="N16">
-        <v>1.035339345233155</v>
+        <v>0.9799206346745675</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028058754690353</v>
+        <v>0.9513477492696241</v>
       </c>
       <c r="D17">
-        <v>1.037667204747761</v>
+        <v>0.9684785525585312</v>
       </c>
       <c r="E17">
-        <v>1.028066228045587</v>
+        <v>0.9650413371898883</v>
       </c>
       <c r="F17">
-        <v>1.044682739886002</v>
+        <v>0.9740751969384676</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027160390345438</v>
+        <v>1.043027058333246</v>
       </c>
       <c r="J17">
-        <v>1.034294169329722</v>
+        <v>0.9808130696767057</v>
       </c>
       <c r="K17">
-        <v>1.041027245102741</v>
+        <v>0.9830628010180993</v>
       </c>
       <c r="L17">
-        <v>1.031459952898278</v>
+        <v>0.9796913997014775</v>
       </c>
       <c r="M17">
-        <v>1.048018597355958</v>
+        <v>0.9885535815129538</v>
       </c>
       <c r="N17">
-        <v>1.03576298568537</v>
+        <v>0.9822059367364778</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028387231852338</v>
+        <v>0.9531713223178645</v>
       </c>
       <c r="D18">
-        <v>1.037980408770541</v>
+        <v>0.9701410124570402</v>
       </c>
       <c r="E18">
-        <v>1.028348527019498</v>
+        <v>0.9665323532954921</v>
       </c>
       <c r="F18">
-        <v>1.045007766617997</v>
+        <v>0.9758219837475722</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02716177048917</v>
+        <v>1.043176354256738</v>
       </c>
       <c r="J18">
-        <v>1.03454077624674</v>
+        <v>0.9821281498634503</v>
       </c>
       <c r="K18">
-        <v>1.041297546904369</v>
+        <v>0.9844958552326755</v>
       </c>
       <c r="L18">
-        <v>1.031698989955104</v>
+        <v>0.9809549200017306</v>
       </c>
       <c r="M18">
-        <v>1.048301017202988</v>
+        <v>0.9900715336759285</v>
       </c>
       <c r="N18">
-        <v>1.036009942812496</v>
+        <v>0.98352288448793</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028499216393339</v>
+        <v>0.9537894284687867</v>
       </c>
       <c r="D19">
-        <v>1.03808718846997</v>
+        <v>0.9707046869849385</v>
       </c>
       <c r="E19">
-        <v>1.028444773781221</v>
+        <v>0.9670379550620726</v>
       </c>
       <c r="F19">
-        <v>1.045118565377996</v>
+        <v>0.9764141955645986</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027162191601837</v>
+        <v>1.043226644424428</v>
       </c>
       <c r="J19">
-        <v>1.034624838384764</v>
+        <v>0.9825739067368142</v>
       </c>
       <c r="K19">
-        <v>1.041389687794825</v>
+        <v>0.984981632455498</v>
       </c>
       <c r="L19">
-        <v>1.03178047466039</v>
+        <v>0.9813832427700319</v>
       </c>
       <c r="M19">
-        <v>1.048397278077052</v>
+        <v>0.9905860548508053</v>
       </c>
       <c r="N19">
-        <v>1.036094124328398</v>
+        <v>0.9839692743871828</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027998325345644</v>
+        <v>0.9510105456402377</v>
       </c>
       <c r="D20">
-        <v>1.037609586169688</v>
+        <v>0.9681712272847651</v>
       </c>
       <c r="E20">
-        <v>1.028014296542926</v>
+        <v>0.9647657327866487</v>
       </c>
       <c r="F20">
-        <v>1.044622940829542</v>
+        <v>0.9737522571064832</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027160112996758</v>
+        <v>1.042999302726114</v>
       </c>
       <c r="J20">
-        <v>1.034248796204799</v>
+        <v>0.9805698971614015</v>
       </c>
       <c r="K20">
-        <v>1.04097751319981</v>
+        <v>0.9827978293061368</v>
       </c>
       <c r="L20">
-        <v>1.031415973947788</v>
+        <v>0.9794577816191584</v>
       </c>
       <c r="M20">
-        <v>1.047966630755436</v>
+        <v>0.9882728960017668</v>
       </c>
       <c r="N20">
-        <v>1.035717548125405</v>
+        <v>0.9819624188883102</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026368625066941</v>
+        <v>0.9417069192052487</v>
       </c>
       <c r="D21">
-        <v>1.036055806641493</v>
+        <v>0.9597027367725494</v>
       </c>
       <c r="E21">
-        <v>1.026614066951824</v>
+        <v>0.957174671361179</v>
       </c>
       <c r="F21">
-        <v>1.043009725446648</v>
+        <v>0.9648506423722282</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02714992897389</v>
+        <v>1.042216621309138</v>
       </c>
       <c r="J21">
-        <v>1.033024532096718</v>
+        <v>0.9738615471700909</v>
       </c>
       <c r="K21">
-        <v>1.039635737088326</v>
+        <v>0.975489999758648</v>
       </c>
       <c r="L21">
-        <v>1.03022948962493</v>
+        <v>0.9730154892749903</v>
       </c>
       <c r="M21">
-        <v>1.046563970015906</v>
+        <v>0.9805299976128834</v>
       </c>
       <c r="N21">
-        <v>1.034491545421865</v>
+        <v>0.9752445422705529</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025342970364464</v>
+        <v>0.935633304513307</v>
       </c>
       <c r="D22">
-        <v>1.035078051400211</v>
+        <v>0.9541857564585896</v>
       </c>
       <c r="E22">
-        <v>1.02573312056361</v>
+        <v>0.9522327552313714</v>
       </c>
       <c r="F22">
-        <v>1.041993953791423</v>
+        <v>0.959048930997321</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027140902358004</v>
+        <v>1.041689979374374</v>
       </c>
       <c r="J22">
-        <v>1.032253449884341</v>
+        <v>0.9694837309486716</v>
       </c>
       <c r="K22">
-        <v>1.038790736902033</v>
+        <v>0.9707229183014175</v>
       </c>
       <c r="L22">
-        <v>1.029482359989818</v>
+        <v>0.968813838658682</v>
       </c>
       <c r="M22">
-        <v>1.045680055151551</v>
+        <v>0.975477757670447</v>
       </c>
       <c r="N22">
-        <v>1.033719368184302</v>
+        <v>0.970860509047957</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025886786175173</v>
+        <v>0.9388755025016399</v>
       </c>
       <c r="D23">
-        <v>1.035596458727541</v>
+        <v>0.9571296724193896</v>
       </c>
       <c r="E23">
-        <v>1.026200182226417</v>
+        <v>0.9548694748843058</v>
       </c>
       <c r="F23">
-        <v>1.042532575640399</v>
+        <v>0.9621450045371012</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027145936040995</v>
+        <v>1.041972514711738</v>
       </c>
       <c r="J23">
-        <v>1.032662343645356</v>
+        <v>0.9718204872441512</v>
       </c>
       <c r="K23">
-        <v>1.039238819240733</v>
+        <v>0.9732672630057625</v>
       </c>
       <c r="L23">
-        <v>1.029878537072805</v>
+        <v>0.9710563161981952</v>
       </c>
       <c r="M23">
-        <v>1.046148826965547</v>
+        <v>0.9781744041865006</v>
       </c>
       <c r="N23">
-        <v>1.034128842621358</v>
+        <v>0.9732005838054061</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028025631091584</v>
+        <v>0.9511629820510054</v>
       </c>
       <c r="D24">
-        <v>1.037635621797619</v>
+        <v>0.9683101535286398</v>
       </c>
       <c r="E24">
-        <v>1.028037762336836</v>
+        <v>0.9648903185661594</v>
       </c>
       <c r="F24">
-        <v>1.04464996194369</v>
+        <v>0.9738982428813724</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027160239219924</v>
+        <v>1.04301185560596</v>
       </c>
       <c r="J24">
-        <v>1.034269298815154</v>
+        <v>0.980679825655818</v>
       </c>
       <c r="K24">
-        <v>1.040999985365267</v>
+        <v>0.982917611741544</v>
       </c>
       <c r="L24">
-        <v>1.031435846523257</v>
+        <v>0.9795633901509293</v>
       </c>
       <c r="M24">
-        <v>1.047990112902358</v>
+        <v>0.9883997825849318</v>
       </c>
       <c r="N24">
-        <v>1.035738079851818</v>
+        <v>0.9820725034937975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030503528130116</v>
+        <v>0.9645563987322473</v>
       </c>
       <c r="D25">
-        <v>1.039998519673605</v>
+        <v>0.9805377454258949</v>
       </c>
       <c r="E25">
-        <v>1.030167866896008</v>
+        <v>0.9758626645454124</v>
       </c>
       <c r="F25">
-        <v>1.047100817133351</v>
+        <v>0.9867400969214152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02716539543726</v>
+        <v>1.044074662321931</v>
       </c>
       <c r="J25">
-        <v>1.03612841016152</v>
+        <v>0.9903384279320456</v>
       </c>
       <c r="K25">
-        <v>1.043037912400111</v>
+        <v>0.9934458931800341</v>
       </c>
       <c r="L25">
-        <v>1.033238202211382</v>
+        <v>0.9888476066775211</v>
       </c>
       <c r="M25">
-        <v>1.05011824960771</v>
+        <v>0.999547803602182</v>
       </c>
       <c r="N25">
-        <v>1.037599831349539</v>
+        <v>0.9917448220931145</v>
       </c>
     </row>
   </sheetData>
